--- a/src/main/java/code_record.xlsx
+++ b/src/main/java/code_record.xlsx
@@ -394,7 +394,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
